--- a/src/sheets/test.xlsx
+++ b/src/sheets/test.xlsx
@@ -431,29 +431,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1" xml:space="preserve">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="2" t="str">
+        <v>test</v>
+      </c>
+      <c r="B1" s="3" t="str">
         <v>ad: 24</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="C1" s="4" t="str">
         <v>bold &amp; color</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="D1" s="5" t="str">
         <v>fill: color</v>
       </c>
-      <c r="D1" s="6" t="str" xml:space="preserve">
+      <c r="E1" s="6" t="str" xml:space="preserve">
         <v xml:space="preserve">line
 break</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
   </ignoredErrors>
 </worksheet>
 </file>